--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail9 Features.xlsx
@@ -4275,7 +4275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4286,29 +4286,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="17" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="17" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4329,115 +4327,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4454,72 +4442,66 @@
         <v>4.970406801100607e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.946051253382249</v>
+        <v>3.591778381975514e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>11.93044630581555</v>
+        <v>7.133004917526186e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.591778381975514e-06</v>
+        <v>0.09159294014504039</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.133004917526186e-06</v>
+        <v>0.3736012407339613</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09159294014504039</v>
+        <v>0.1476388217200754</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3736012407339613</v>
+        <v>1.913971711356236</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1476388217200754</v>
+        <v>2.552609097536112</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.955288203802591</v>
+        <v>4.440096162085095</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.552609097536112</v>
+        <v>4.413561942805682e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.440096162085095</v>
+        <v>1079641785.473984</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.413561942805682e-16</v>
+        <v>1.109646516213709e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1079641785.473984</v>
+        <v>514.4564252107763</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.109646516213709e-07</v>
+        <v>0.0001217734831015271</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>514.4564252107763</v>
+        <v>12.71405063222307</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001217734831015271</v>
+        <v>1.167159812746203</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.71405063222307</v>
+        <v>0.01968432838840849</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.167159812746203</v>
+        <v>4.829176256573124</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01968432838840849</v>
+        <v>0.9607524344386079</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.829176256573124</v>
+        <v>0.9969331526375783</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9607524344386079</v>
+        <v>189</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9969331526375783</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>189</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>5.352424457558195</v>
       </c>
     </row>
@@ -4534,72 +4516,66 @@
         <v>3.736811871716937e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.896224109680972</v>
+        <v>2.61438336562249e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.964724038969905</v>
+        <v>7.169833551583291e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.61438336562249e-06</v>
+        <v>0.07771969811260519</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.169833551583291e-06</v>
+        <v>0.3750511139907107</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07771969811260519</v>
+        <v>0.1463750944026729</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3750511139907107</v>
+        <v>1.912241513489367</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1463750944026729</v>
+        <v>2.651930287063987</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.952112788167724</v>
+        <v>4.960214733853476</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.651930287063987</v>
+        <v>3.536494785709531e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.960214733853476</v>
+        <v>1341341129.816267</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.536494785709531e-16</v>
+        <v>8.919127907225869e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1341341129.816267</v>
+        <v>636.2847366316633</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.919127907225869e-08</v>
+        <v>0.0001256097546686758</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>636.2847366316633</v>
+        <v>11.63858776227899</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001256097546686758</v>
+        <v>1.626603184868804</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.63858776227899</v>
+        <v>0.0170146860080672</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.626603184868804</v>
+        <v>5.899713576990014</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0170146860080672</v>
+        <v>0.9629404284564002</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.899713576990014</v>
+        <v>1.016836536226704</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9629404284564002</v>
+        <v>196</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.016836536226704</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>196</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>8.504850904783918</v>
       </c>
     </row>
@@ -4614,72 +4590,66 @@
         <v>3.026845130595655e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.6565344483904442</v>
+        <v>1.880521812480662e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.62507972052089</v>
+        <v>7.192330631592292e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.880521812480662e-06</v>
+        <v>0.05484340085227726</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.192330631592292e-06</v>
+        <v>0.3490129096231217</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.05484340085227726</v>
+        <v>0.1245288516013929</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3490129096231217</v>
+        <v>1.916832275280595</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1245288516013929</v>
+        <v>2.513134379647978</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.955188258131893</v>
+        <v>6.36016100368468</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.513134379647978</v>
+        <v>1.733004877721716e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.36016100368468</v>
+        <v>2806627399.948479</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.733004877721716e-16</v>
+        <v>4.273050626694911e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2806627399.948479</v>
+        <v>1365.115213117284</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.273050626694911e-08</v>
+        <v>7.067122639773045e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1365.115213117284</v>
+        <v>10.09068676178359</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7.067122639773045e-05</v>
+        <v>1.620863695415205</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.09068676178359</v>
+        <v>0.007195882739677625</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.620863695415205</v>
+        <v>6.362913809028478</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007195882739677625</v>
+        <v>0.9632330693503691</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.362913809028478</v>
+        <v>1.004157204924447</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9632330693503691</v>
+        <v>220</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.004157204924447</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>220</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>8.785904515399469</v>
       </c>
     </row>
@@ -4694,72 +4664,66 @@
         <v>2.715904299174182e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.068087314287818</v>
+        <v>1.320349841928506e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7626070337519169</v>
+        <v>7.203912181352349e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.320349841928506e-06</v>
+        <v>0.02599048743765017</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.203912181352349e-06</v>
+        <v>0.2879182647112456</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02599048743765017</v>
+        <v>0.08336518746388559</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2879182647112456</v>
+        <v>1.911711699857491</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.08336518746388559</v>
+        <v>3.298610883758764</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.949256577323228</v>
+        <v>5.53930121249605</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.298610883758764</v>
+        <v>1.099654153622044e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.53930121249605</v>
+        <v>4526220173.769923</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.099654153622044e-16</v>
+        <v>2.65793654066229e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>4526220173.769923</v>
+        <v>2252.825072729472</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.65793654066229e-08</v>
+        <v>5.531614451279633e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2252.825072729472</v>
+        <v>9.453691725014961</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>5.531614451279633e-05</v>
+        <v>1.256599010832338</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.453691725014961</v>
+        <v>0.004943730355943232</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.256599010832338</v>
+        <v>5.785418346784668</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.004943730355943232</v>
+        <v>0.9640811262017563</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.785418346784668</v>
+        <v>0.9672848160370073</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9640811262017563</v>
+        <v>231</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9672848160370073</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>231</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.768431573738934</v>
       </c>
     </row>
@@ -4774,72 +4738,66 @@
         <v>2.647056808112653e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2058411548697236</v>
+        <v>9.083224082232934e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.036190780274032</v>
+        <v>7.207210515575198e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.083224082232934e-07</v>
+        <v>-6.910130096528712e-05</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.207210515575198e-06</v>
+        <v>0.2160030257252701</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-6.910130096528712e-05</v>
+        <v>0.0465453755747855</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2160030257252701</v>
+        <v>1.919441034574643</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0465453755747855</v>
+        <v>2.781023855223526</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.951987455669756</v>
+        <v>6.404764792436409</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.781023855223526</v>
+        <v>1.358927505113004e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.404764792436409</v>
+        <v>3663350775.670626</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.358927505113004e-16</v>
+        <v>3.279932160689168e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>3663350775.670626</v>
+        <v>1823.699588126591</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.279932160689168e-08</v>
+        <v>6.587327792993193e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1823.699588126591</v>
+        <v>7.49699821735055</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>6.587327792993193e-05</v>
+        <v>1.262516188325755</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.49699821735055</v>
+        <v>0.003702406418181669</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.262516188325755</v>
+        <v>5.131717990870433</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.003702406418181669</v>
+        <v>0.965076251495575</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.131717990870433</v>
+        <v>0.9878646731799368</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.965076251495575</v>
+        <v>195</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9878646731799368</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>195</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>4.957502445887133</v>
       </c>
     </row>
@@ -4854,72 +4812,66 @@
         <v>2.67958945090609e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1817468157886748</v>
+        <v>9.144247829899727e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.041166519452194</v>
+        <v>7.204531948382288e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.144247829899727e-07</v>
+        <v>-0.01868171518885467</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.204531948382288e-06</v>
+        <v>0.1582183624536332</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01868171518885467</v>
+        <v>0.02532750001816502</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1582183624536332</v>
+        <v>1.92846504119705</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02532750001816502</v>
+        <v>2.905653807547618</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.956791055533015</v>
+        <v>6.287867057909123</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.905653807547618</v>
+        <v>2.013076974367974e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.287867057909123</v>
+        <v>2555799057.361191</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.013076974367974e-16</v>
+        <v>4.714357423078557e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2555799057.361191</v>
+        <v>1314.96378628457</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.714357423078557e-08</v>
+        <v>8.791571068104738e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1314.96378628457</v>
+        <v>6.742132961239063</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.791571068104738e-05</v>
+        <v>1.451394616018289</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.742132961239063</v>
+        <v>0.003996327918935918</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.451394616018289</v>
+        <v>4.587429699083209</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003996327918935918</v>
+        <v>0.964476777876798</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.587429699083209</v>
+        <v>0.9754640719557983</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.964476777876798</v>
+        <v>144</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9754640719557983</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.362178880954533</v>
       </c>
     </row>
@@ -5296,7 +5248,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.380229575734707</v>
+        <v>1.407709339784327</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.964744310195802</v>
@@ -5385,7 +5337,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.366281495565867</v>
+        <v>1.391142091849237</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.874117959899492</v>
@@ -5474,7 +5426,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.36985878570368</v>
+        <v>1.391416513495813</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.906193843476272</v>
@@ -5563,7 +5515,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.453495924347082</v>
+        <v>1.470815880853014</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.703182008782419</v>
@@ -5652,7 +5604,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.565696286421344</v>
+        <v>1.577373829818756</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.616946245541106</v>
@@ -5741,7 +5693,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.521218438151948</v>
+        <v>1.541222552971538</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.410024534597335</v>
@@ -5830,7 +5782,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.549821055671112</v>
+        <v>1.5727119064402</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.289050150154042</v>
@@ -5919,7 +5871,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.571767463582318</v>
+        <v>1.591457428648933</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.562937765010178</v>
@@ -6008,7 +5960,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.59781775393178</v>
+        <v>1.614748634891139</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.414285889218859</v>
@@ -6097,7 +6049,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.604576364375023</v>
+        <v>1.623854405120783</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.400758983854808</v>
@@ -6186,7 +6138,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.6261771818269</v>
+        <v>1.63955578828312</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.553617364528507</v>
@@ -6275,7 +6227,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.629955344426629</v>
+        <v>1.64736137180615</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.569359735457424</v>
@@ -6364,7 +6316,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.655758963482848</v>
+        <v>1.669619326462076</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.509324442359192</v>
@@ -6453,7 +6405,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653363286220025</v>
+        <v>1.66915048472252</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.489960342362963</v>
@@ -6542,7 +6494,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.65223388800287</v>
+        <v>1.666340480761041</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.367691808619181</v>
@@ -6631,7 +6583,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641268861099275</v>
+        <v>1.655617448180113</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.45802681577228</v>
@@ -6720,7 +6672,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.638651303098257</v>
+        <v>1.651463677135597</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.33211598644281</v>
@@ -6809,7 +6761,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.668139455751219</v>
+        <v>1.682219610287955</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.478145476923812</v>
@@ -6898,7 +6850,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.667836647513028</v>
+        <v>1.681959369395615</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.414743638236951</v>
@@ -6987,7 +6939,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.684834264353022</v>
+        <v>1.694436364473501</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.420860933086224</v>
@@ -7076,7 +7028,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.756026381978659</v>
+        <v>1.749571136435901</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.456724573715785</v>
@@ -7165,7 +7117,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.724599622601376</v>
+        <v>1.717894225871341</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.395092703499421</v>
@@ -7254,7 +7206,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.690245000041062</v>
+        <v>1.688946476368794</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.409256158533758</v>
@@ -7343,7 +7295,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.690872933902933</v>
+        <v>1.694063110495051</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.504455698549986</v>
@@ -7432,7 +7384,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.681527358290068</v>
+        <v>1.682751597524424</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.550279081248589</v>
@@ -7521,7 +7473,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.650257243943527</v>
+        <v>1.658196163241978</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.319668688497923</v>
@@ -7610,7 +7562,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.648373816941874</v>
+        <v>1.659215469141341</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.37782203547664</v>
@@ -7699,7 +7651,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.651518734871648</v>
+        <v>1.666679002306383</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.403061096865261</v>
@@ -7788,7 +7740,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.653678924182805</v>
+        <v>1.668384400854827</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.40796948841504</v>
@@ -7877,7 +7829,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.657925999719735</v>
+        <v>1.669565571264443</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.431866883261806</v>
@@ -7966,7 +7918,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.696653972733877</v>
+        <v>1.706274507176451</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.344579251688104</v>
@@ -8055,7 +8007,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.673749187269539</v>
+        <v>1.679281539397682</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.360773769377546</v>
@@ -8144,7 +8096,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.680135001053146</v>
+        <v>1.685402151837032</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.342988962552269</v>
@@ -8233,7 +8185,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.677793246652495</v>
+        <v>1.683143673959542</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.398046523180565</v>
@@ -8322,7 +8274,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.686446515931413</v>
+        <v>1.692392262210048</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.374032931639043</v>
@@ -8411,7 +8363,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.690194852588323</v>
+        <v>1.696872335541051</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.392959064967774</v>
@@ -8500,7 +8452,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.698779872363624</v>
+        <v>1.706100574745302</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.386729948879331</v>
@@ -8589,7 +8541,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.731582169215238</v>
+        <v>1.736644197405</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.448440218809389</v>
@@ -8678,7 +8630,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.734809783337747</v>
+        <v>1.73970113065029</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.438928277596121</v>
@@ -8767,7 +8719,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.768794383259117</v>
+        <v>1.769373851062714</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.266256327652759</v>
@@ -8856,7 +8808,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.819017255691643</v>
+        <v>1.806949937036209</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.446106429245168</v>
@@ -8945,7 +8897,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.77107771756755</v>
+        <v>1.766518875279572</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.560628798724515</v>
@@ -9034,7 +8986,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.768668057661559</v>
+        <v>1.759333719243628</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.531755643705178</v>
@@ -9123,7 +9075,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.770468193584469</v>
+        <v>1.760195506830737</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.59328049800859</v>
@@ -9212,7 +9164,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.773311095427224</v>
+        <v>1.76832969413417</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.523791916321911</v>
@@ -9301,7 +9253,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.77572833635106</v>
+        <v>1.769561239293306</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.463008610815432</v>
@@ -9390,7 +9342,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.769619113719654</v>
+        <v>1.765453257549725</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.649358803455871</v>
@@ -9479,7 +9431,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.769267329306626</v>
+        <v>1.763705726152297</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.598679781862152</v>
@@ -9568,7 +9520,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.773028464277327</v>
+        <v>1.769517100701508</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.658808643011526</v>
@@ -9657,7 +9609,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.767640879320195</v>
+        <v>1.765551368940159</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.521352902466769</v>
@@ -9746,7 +9698,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.765201574008729</v>
+        <v>1.763149072587597</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.457719272753919</v>
@@ -10032,7 +9984,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.615653467921275</v>
+        <v>1.631957185833543</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.581491843720228</v>
@@ -10121,7 +10073,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.61917842137934</v>
+        <v>1.633014160318046</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.641743907394641</v>
@@ -10210,7 +10162,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.645821390130402</v>
+        <v>1.654665436055563</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.511925971961836</v>
@@ -10299,7 +10251,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.682961004654084</v>
+        <v>1.692510832571255</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.422685848783365</v>
@@ -10388,7 +10340,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.707222554939834</v>
+        <v>1.708967497576382</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.559606531842707</v>
@@ -10477,7 +10429,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.71606305196551</v>
+        <v>1.715554159237666</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.536907286685702</v>
@@ -10566,7 +10518,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.746899044059599</v>
+        <v>1.740936410503104</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.535849838349443</v>
@@ -10655,7 +10607,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.709295940542397</v>
+        <v>1.710111043175671</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.417958762864175</v>
@@ -10744,7 +10696,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.655089160801516</v>
+        <v>1.648938863252239</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.902910775380192</v>
@@ -10833,7 +10785,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.654917844643094</v>
+        <v>1.649750708808079</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.709026281572476</v>
@@ -10922,7 +10874,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.654106898845645</v>
+        <v>1.649349399654602</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.99234970269276</v>
@@ -11011,7 +10963,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.655836549185226</v>
+        <v>1.649772999962998</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.8710954354382</v>
@@ -11100,7 +11052,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.663159004677513</v>
+        <v>1.656733943270587</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.929143300192806</v>
@@ -11189,7 +11141,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.658631026205759</v>
+        <v>1.647968193257427</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.875897443788936</v>
@@ -11278,7 +11230,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.6555864525887</v>
+        <v>1.645918972659556</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.856127824598055</v>
@@ -11367,7 +11319,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.656108098145511</v>
+        <v>1.648161897610413</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.968825547710882</v>
@@ -11456,7 +11408,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658867007915775</v>
+        <v>1.652466667489637</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.715085630155895</v>
@@ -11545,7 +11497,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.669098578977288</v>
+        <v>1.662416310359466</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.604064681602193</v>
@@ -11634,7 +11586,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.677064044921478</v>
+        <v>1.66426087815311</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.693866387092215</v>
@@ -11723,7 +11675,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.694276063601577</v>
+        <v>1.681390090433769</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.941694550273793</v>
@@ -11812,7 +11764,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.738550419978701</v>
+        <v>1.716623788590133</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.956486540142218</v>
@@ -11901,7 +11853,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.746494629930095</v>
+        <v>1.718446779728207</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.338084486221682</v>
@@ -11990,7 +11942,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.754256946731658</v>
+        <v>1.720079448141995</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.627613252858247</v>
@@ -12079,7 +12031,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.755377635453468</v>
+        <v>1.719895109950303</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.757996674573783</v>
@@ -12168,7 +12120,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.74914422697308</v>
+        <v>1.717976103699391</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.368190551088849</v>
@@ -12257,7 +12209,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.726839942528552</v>
+        <v>1.699064159804536</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.69968182055674</v>
@@ -12346,7 +12298,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.730341208243008</v>
+        <v>1.707294076381873</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.499754231386176</v>
@@ -12435,7 +12387,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.720341839024071</v>
+        <v>1.69437334429883</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.621463676046115</v>
@@ -12524,7 +12476,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.714604625623903</v>
+        <v>1.692961492781426</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.568659448867517</v>
@@ -12613,7 +12565,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.706358860140518</v>
+        <v>1.68717526444503</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.28977379678432</v>
@@ -12702,7 +12654,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.706856765990028</v>
+        <v>1.685338457276878</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.720057731674114</v>
@@ -12791,7 +12743,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.693579799515183</v>
+        <v>1.670313927577883</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.204712985667297</v>
@@ -12880,7 +12832,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.692517623138154</v>
+        <v>1.673523150547778</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.248776672795011</v>
@@ -12969,7 +12921,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.69192965912432</v>
+        <v>1.675806023059687</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.123489435869728</v>
@@ -13058,7 +13010,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.690843324531665</v>
+        <v>1.672002421775275</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.377913642339094</v>
@@ -13147,7 +13099,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.685005142494187</v>
+        <v>1.666213189836196</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.891313112265438</v>
@@ -13236,7 +13188,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.671287062092703</v>
+        <v>1.655749741656172</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.218445100299446</v>
@@ -13325,7 +13277,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.665688801426263</v>
+        <v>1.649217296184896</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.223526418193215</v>
@@ -13414,7 +13366,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.658404556120584</v>
+        <v>1.646207803532632</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.136271072891133</v>
@@ -13503,7 +13455,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.668013959417625</v>
+        <v>1.653665948197499</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.77974390011146</v>
@@ -13592,7 +13544,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647874394606816</v>
+        <v>1.640382675570687</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.809906370863998</v>
@@ -13681,7 +13633,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.639665659055938</v>
+        <v>1.630530629371539</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.079576947819171</v>
@@ -13770,7 +13722,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.645317622797461</v>
+        <v>1.643931307739468</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.898138420236996</v>
@@ -13859,7 +13811,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.646599227917218</v>
+        <v>1.647127809133261</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.162527144359745</v>
@@ -13948,7 +13900,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.654958713547364</v>
+        <v>1.651595905839209</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.052218077168368</v>
@@ -14037,7 +13989,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.655668156312957</v>
+        <v>1.651759750422883</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.87240785799258</v>
@@ -14126,7 +14078,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.658757753441611</v>
+        <v>1.654031050608283</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.985753760940748</v>
@@ -14215,7 +14167,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.652582515834426</v>
+        <v>1.64873725640815</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.016187491631035</v>
@@ -14304,7 +14256,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.651404141267267</v>
+        <v>1.647873344934859</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.908630339940508</v>
@@ -14393,7 +14345,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647213469027757</v>
+        <v>1.643635816226906</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.000916018897158</v>
@@ -14482,7 +14434,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.656771174960077</v>
+        <v>1.651143292689595</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.178269350756875</v>
@@ -14768,7 +14720,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.544469282322222</v>
+        <v>1.567759637039449</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.74709427762226</v>
@@ -14857,7 +14809,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.538924915179564</v>
+        <v>1.562170474039186</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.433694089018286</v>
@@ -14946,7 +14898,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.535038346776135</v>
+        <v>1.552563824635877</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.599448368336071</v>
@@ -15035,7 +14987,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.572848242003401</v>
+        <v>1.591767106542222</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.191906353979398</v>
@@ -15124,7 +15076,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.595918512839812</v>
+        <v>1.613343973371271</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.799348760065882</v>
@@ -15213,7 +15165,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.57548632495932</v>
+        <v>1.592360720486973</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.798749955067872</v>
@@ -15302,7 +15254,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.587749506695425</v>
+        <v>1.598305952708769</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.5787449371631</v>
@@ -15391,7 +15343,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.595943331007079</v>
+        <v>1.608962913224397</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.771389623946466</v>
@@ -15480,7 +15432,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.59577053393574</v>
+        <v>1.60824626151035</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.453173379280383</v>
@@ -15569,7 +15521,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605186755856434</v>
+        <v>1.616511158791174</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.674340504310227</v>
@@ -15658,7 +15610,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.606765734020211</v>
+        <v>1.619643166117203</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.615306322067364</v>
@@ -15747,7 +15699,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.619706651840912</v>
+        <v>1.631320888737681</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.691259959270798</v>
@@ -15836,7 +15788,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.622250371955366</v>
+        <v>1.637140006231955</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.548739985142272</v>
@@ -15925,7 +15877,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.641702379161156</v>
+        <v>1.651165407918751</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.677699992434225</v>
@@ -16014,7 +15966,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.638396564193006</v>
+        <v>1.651438529589607</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.55709225887545</v>
@@ -16103,7 +16055,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641206893694202</v>
+        <v>1.659046488285861</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.547898345202699</v>
@@ -16192,7 +16144,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658203780904562</v>
+        <v>1.670283474417158</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.599770191201454</v>
@@ -16281,7 +16233,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666364278621757</v>
+        <v>1.676580165580499</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.666387788155231</v>
@@ -16370,7 +16322,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.681009871149938</v>
+        <v>1.687210237752104</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.93107068792365</v>
@@ -16459,7 +16411,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.695855822682378</v>
+        <v>1.697126122868743</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.622524441525645</v>
@@ -16548,7 +16500,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.730300190623589</v>
+        <v>1.722894119838527</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.222138822768136</v>
@@ -16637,7 +16589,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.724840225898593</v>
+        <v>1.721922271015506</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.016044976633027</v>
@@ -16726,7 +16678,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.708303325803119</v>
+        <v>1.703581893509308</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.12860938782923</v>
@@ -16815,7 +16767,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.717021619633035</v>
+        <v>1.711343181050665</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.244642071025008</v>
@@ -16904,7 +16856,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.72296850487584</v>
+        <v>1.716582548044334</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.655892303006341</v>
@@ -16993,7 +16945,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.716161224228302</v>
+        <v>1.71075500128346</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.824012026114928</v>
@@ -17082,7 +17034,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.710322732514723</v>
+        <v>1.70713511575042</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.668092729227022</v>
@@ -17171,7 +17123,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.70528050542771</v>
+        <v>1.702220915858844</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.693667174574524</v>
@@ -17260,7 +17212,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.697356966026543</v>
+        <v>1.703916921462763</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.911130539804555</v>
@@ -17349,7 +17301,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.701353316405196</v>
+        <v>1.706693108981152</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.597352254957058</v>
@@ -17438,7 +17390,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.702556981008782</v>
+        <v>1.709952112774392</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.819477701398772</v>
@@ -17527,7 +17479,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.679577683801299</v>
+        <v>1.687555507451122</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.817721497462971</v>
@@ -17616,7 +17568,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.689272212531387</v>
+        <v>1.696206697182104</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.953373013866203</v>
@@ -17705,7 +17657,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.687957892676936</v>
+        <v>1.693368681350469</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.745464922513174</v>
@@ -17794,7 +17746,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.681210427529087</v>
+        <v>1.690867315436405</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.849700783075535</v>
@@ -17883,7 +17835,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.688439151727864</v>
+        <v>1.696349423892965</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.846057181775003</v>
@@ -17972,7 +17924,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.693795515059661</v>
+        <v>1.695776297416266</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.693056634851585</v>
@@ -18061,7 +18013,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.713651009354867</v>
+        <v>1.714619575860167</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.733150197181974</v>
@@ -18150,7 +18102,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.695102681870837</v>
+        <v>1.700647937551484</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.962886239409251</v>
@@ -18239,7 +18191,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.694253083860333</v>
+        <v>1.702621969732706</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.005707334442524</v>
@@ -18328,7 +18280,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.704511227019776</v>
+        <v>1.71236456873892</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.049886667106852</v>
@@ -18417,7 +18369,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673644015067113</v>
+        <v>1.683180241274292</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.078911564485299</v>
@@ -18506,7 +18458,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.681892637276192</v>
+        <v>1.686809095208535</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.762791756788563</v>
@@ -18595,7 +18547,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.687243757954023</v>
+        <v>1.694194331512653</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.109977507537283</v>
@@ -18684,7 +18636,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.684425461451783</v>
+        <v>1.693430103681094</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.104454956519166</v>
@@ -18773,7 +18725,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.69215189458516</v>
+        <v>1.696119228915551</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.041197518072425</v>
@@ -18862,7 +18814,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.687347676978208</v>
+        <v>1.693139570005167</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.94575393100865</v>
@@ -18951,7 +18903,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.673090303569765</v>
+        <v>1.674083325046869</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.168776236423106</v>
@@ -19040,7 +18992,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.647903952540064</v>
+        <v>1.662869456794518</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.86968514322573</v>
@@ -19129,7 +19081,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.643417013186265</v>
+        <v>1.658650643957997</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.998649505461517</v>
@@ -19218,7 +19170,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.637312482503405</v>
+        <v>1.653383874481542</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.145261537704942</v>
@@ -19504,7 +19456,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.66661343244371</v>
+        <v>1.678176805240562</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.915655972166449</v>
@@ -19593,7 +19545,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.646999925305988</v>
+        <v>1.659964410502529</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.780855108972412</v>
@@ -19682,7 +19634,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.64632046910126</v>
+        <v>1.64903432472646</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.499502996892771</v>
@@ -19771,7 +19723,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.682440147037525</v>
+        <v>1.679932618400929</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.468380357612595</v>
@@ -19860,7 +19812,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.715292570455507</v>
+        <v>1.70968782870025</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.970059846537441</v>
@@ -19949,7 +19901,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.712809658060151</v>
+        <v>1.70821989576105</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.268540791940006</v>
@@ -20038,7 +19990,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.735756483093861</v>
+        <v>1.725108023098245</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.144333167191294</v>
@@ -20127,7 +20079,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.737309025871553</v>
+        <v>1.724605826645306</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.089623349137849</v>
@@ -20216,7 +20168,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.740952738260471</v>
+        <v>1.728223518632532</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.034525599827473</v>
@@ -20305,7 +20257,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.748785874381031</v>
+        <v>1.733502865764199</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.30449858351345</v>
@@ -20394,7 +20346,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.748583604750454</v>
+        <v>1.733759189174529</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.332129226905285</v>
@@ -20483,7 +20435,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.741968179851968</v>
+        <v>1.72991397238646</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.365845729202488</v>
@@ -20572,7 +20524,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.755712804186283</v>
+        <v>1.737652146502642</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.140049673598506</v>
@@ -20661,7 +20613,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.757030658008627</v>
+        <v>1.738628186241378</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.45535751793461</v>
@@ -20750,7 +20702,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.758245719780521</v>
+        <v>1.743816837004485</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.145788302202784</v>
@@ -20839,7 +20791,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.762945810391089</v>
+        <v>1.748049539637622</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.589295692025288</v>
@@ -20928,7 +20880,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.760814242006618</v>
+        <v>1.743516067980174</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.164253621722064</v>
@@ -21017,7 +20969,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.764577545432113</v>
+        <v>1.750582172559212</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.330810025665394</v>
@@ -21106,7 +21058,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.761601589981723</v>
+        <v>1.751422561020331</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.290180752878229</v>
@@ -21195,7 +21147,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.776869330558731</v>
+        <v>1.766826661227301</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.40304983977039</v>
@@ -21284,7 +21236,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.785392162641512</v>
+        <v>1.77384964554828</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.574430365380078</v>
@@ -21373,7 +21325,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.782067109536893</v>
+        <v>1.76911169088164</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.765743036249777</v>
@@ -21462,7 +21414,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.774551026457022</v>
+        <v>1.759947914894018</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.850895713353464</v>
@@ -21551,7 +21503,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.769772993029138</v>
+        <v>1.758288641584008</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.446048277751369</v>
@@ -21640,7 +21592,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.763545835666661</v>
+        <v>1.748823000151251</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.870018566393322</v>
@@ -21729,7 +21681,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.760920447231182</v>
+        <v>1.752033403376995</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.863800232829054</v>
@@ -21818,7 +21770,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.764764555126785</v>
+        <v>1.755228638891892</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.690574312921625</v>
@@ -21907,7 +21859,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.7553093049392</v>
+        <v>1.747419107712804</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.492036390882101</v>
@@ -21996,7 +21948,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.753083531919055</v>
+        <v>1.745757334468883</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.418128977920121</v>
@@ -22085,7 +22037,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.757444923165813</v>
+        <v>1.741521186946532</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.83022704152705</v>
@@ -22174,7 +22126,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.758185269606423</v>
+        <v>1.744151937064978</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.60515137249536</v>
@@ -22263,7 +22215,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.75103684649152</v>
+        <v>1.737109628496573</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.501217860428227</v>
@@ -22352,7 +22304,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.754601286906977</v>
+        <v>1.742832421804288</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.446049152179854</v>
@@ -22441,7 +22393,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.753886506100211</v>
+        <v>1.743039164166074</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.412601874164647</v>
@@ -22530,7 +22482,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.752959557883753</v>
+        <v>1.739043529310295</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.72633825646105</v>
@@ -22619,7 +22571,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.76833196762314</v>
+        <v>1.750944307031867</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.613070963032818</v>
@@ -22708,7 +22660,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.763364290244639</v>
+        <v>1.749262465269303</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.439097598460249</v>
@@ -22797,7 +22749,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.76543818076058</v>
+        <v>1.752541007979762</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.492742779087274</v>
@@ -22886,7 +22838,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.756356918733005</v>
+        <v>1.743565321773274</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.713673605957101</v>
@@ -22975,7 +22927,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.765955006581844</v>
+        <v>1.749681910648982</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.685664223548471</v>
@@ -23064,7 +23016,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.77175038145128</v>
+        <v>1.75558597032048</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.308292135797342</v>
@@ -23153,7 +23105,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.770475661415089</v>
+        <v>1.752391182148291</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.572747129168945</v>
@@ -23242,7 +23194,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.770505437918147</v>
+        <v>1.756031045578593</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.612485309105894</v>
@@ -23331,7 +23283,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.764816222851573</v>
+        <v>1.749956915129981</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.533768219697915</v>
@@ -23420,7 +23372,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.767251502065497</v>
+        <v>1.754667222231536</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.085464948464584</v>
@@ -23509,7 +23461,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.768895592282683</v>
+        <v>1.751919754682605</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.655487904216546</v>
@@ -23598,7 +23550,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.771506648544734</v>
+        <v>1.7503646806637</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.63171773375106</v>
@@ -23687,7 +23639,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.772887713416319</v>
+        <v>1.745949968457535</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.489002154725583</v>
@@ -23776,7 +23728,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.77328447015719</v>
+        <v>1.745330555194931</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.708129400128267</v>
@@ -23865,7 +23817,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.764496767980041</v>
+        <v>1.738239885514242</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.49773694006669</v>
@@ -23954,7 +23906,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.766283488351846</v>
+        <v>1.741892837093458</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.539582016712745</v>
@@ -24240,7 +24192,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.453961222290205</v>
+        <v>1.491275233275935</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.321381703548948</v>
@@ -24329,7 +24281,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.455775783185342</v>
+        <v>1.493386236877981</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.377882554652198</v>
@@ -24418,7 +24370,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.450818393436606</v>
+        <v>1.486941552617458</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.16849339072939</v>
@@ -24507,7 +24459,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.466505279567155</v>
+        <v>1.495378842501179</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.22447422500303</v>
@@ -24596,7 +24548,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.529869548387175</v>
+        <v>1.553136217497351</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.229349327445646</v>
@@ -24685,7 +24637,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.52918206228922</v>
+        <v>1.54736419503007</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.365649868724677</v>
@@ -24774,7 +24726,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.575593236021992</v>
+        <v>1.585452659243852</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.19281798208432</v>
@@ -24863,7 +24815,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.577800971536246</v>
+        <v>1.582693945977092</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.671706768816652</v>
@@ -24952,7 +24904,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.591911857809674</v>
+        <v>1.594579224476167</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.033655911002306</v>
@@ -25041,7 +24993,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.586071314439787</v>
+        <v>1.588755395462142</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.796524072410212</v>
@@ -25130,7 +25082,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.593519388939684</v>
+        <v>1.595072689624815</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.781053863062812</v>
@@ -25219,7 +25171,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.589751123972262</v>
+        <v>1.590938060623711</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.009081517914258</v>
@@ -25308,7 +25260,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.60034109402151</v>
+        <v>1.595247888934234</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.979277484199542</v>
@@ -25397,7 +25349,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.6081524438808</v>
+        <v>1.605773990516792</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.91451420174654</v>
@@ -25486,7 +25438,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.608379777954105</v>
+        <v>1.603576820394009</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.643428714968955</v>
@@ -25575,7 +25527,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625142626266407</v>
+        <v>1.613315624956518</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.066400237201565</v>
@@ -25664,7 +25616,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.616125134775229</v>
+        <v>1.604255895054</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.727915846817657</v>
@@ -25753,7 +25705,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.623772220122718</v>
+        <v>1.606655522039708</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.790905477902334</v>
@@ -25842,7 +25794,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.616920389995387</v>
+        <v>1.602967113761977</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.5743090917043</v>
@@ -25931,7 +25883,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.61472307448784</v>
+        <v>1.592140818715962</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.012911666679612</v>
@@ -26020,7 +25972,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.637587010348812</v>
+        <v>1.612350760123177</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.206944639416723</v>
@@ -26109,7 +26061,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.621336499888128</v>
+        <v>1.597664816633867</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.065194315138046</v>
@@ -26198,7 +26150,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.597167160639372</v>
+        <v>1.580985728497865</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.081444676272175</v>
@@ -26287,7 +26239,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.5908015204599</v>
+        <v>1.575444897777581</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.906408383534484</v>
@@ -26376,7 +26328,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592208077268791</v>
+        <v>1.57902697447154</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.920246641336762</v>
@@ -26465,7 +26417,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.561804321613335</v>
+        <v>1.555355083628808</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.90746859014847</v>
@@ -26554,7 +26506,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.555860355412521</v>
+        <v>1.548691141074232</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.199820888906616</v>
@@ -26643,7 +26595,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.541504407047753</v>
+        <v>1.533150362551052</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.084569650839298</v>
@@ -26732,7 +26684,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.52298944428048</v>
+        <v>1.520521116713128</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.977797998605238</v>
@@ -26821,7 +26773,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.528723983405456</v>
+        <v>1.526560191526784</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.946654328469431</v>
@@ -26910,7 +26862,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.533804956899693</v>
+        <v>1.534919459729877</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.869965694875642</v>
@@ -26999,7 +26951,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.531158994755656</v>
+        <v>1.527739314189149</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.215965900097877</v>
@@ -27088,7 +27040,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.533846081711209</v>
+        <v>1.535423619233948</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.084060828501137</v>
@@ -27177,7 +27129,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.539058626407928</v>
+        <v>1.53805068294147</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.029421411334724</v>
@@ -27266,7 +27218,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.532656459447492</v>
+        <v>1.535583859021723</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.082962896217872</v>
@@ -27355,7 +27307,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.521352098905637</v>
+        <v>1.524684084097304</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.002157580165628</v>
@@ -27444,7 +27396,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.531522859281754</v>
+        <v>1.531475394281709</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.046812406734373</v>
@@ -27533,7 +27485,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.548520332747012</v>
+        <v>1.548973114570852</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.094212679026492</v>
@@ -27622,7 +27574,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.55360885662666</v>
+        <v>1.55193994308332</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.100861735497816</v>
@@ -27711,7 +27663,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.558002362582193</v>
+        <v>1.55464948610608</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.767012425121625</v>
@@ -27800,7 +27752,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.587901761372175</v>
+        <v>1.583743611435368</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.892036009970267</v>
@@ -27889,7 +27841,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.566744197269187</v>
+        <v>1.563879490210831</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.573476187802321</v>
@@ -27978,7 +27930,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.591065392117481</v>
+        <v>1.587663808975618</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.543356377947808</v>
@@ -28067,7 +28019,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596698557116133</v>
+        <v>1.587365748344458</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.80800319506484</v>
@@ -28156,7 +28108,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600352203075907</v>
+        <v>1.591183160870446</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.466798161280652</v>
@@ -28245,7 +28197,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.589716304695001</v>
+        <v>1.577308643134604</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.630553902980649</v>
@@ -28334,7 +28286,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.59072998615192</v>
+        <v>1.58080708540636</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.757081601646101</v>
@@ -28423,7 +28375,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.589623449854154</v>
+        <v>1.581133443409205</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.572333344043933</v>
@@ -28512,7 +28464,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.603272228719253</v>
+        <v>1.601394062508489</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.622398347563305</v>
@@ -28601,7 +28553,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.620097889549757</v>
+        <v>1.612658266755206</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.819174396761021</v>
@@ -28690,7 +28642,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.642689685438891</v>
+        <v>1.634946895237698</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.704081430541302</v>
@@ -28976,7 +28928,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.374953993054495</v>
+        <v>1.39957275601967</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.120159500512192</v>
@@ -29065,7 +29017,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.365006187898363</v>
+        <v>1.380832191286316</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.06463201720708</v>
@@ -29154,7 +29106,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.397690367686267</v>
+        <v>1.405302299162599</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.034938816473286</v>
@@ -29243,7 +29195,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.467380132934088</v>
+        <v>1.474679563988733</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.99490025113251</v>
@@ -29332,7 +29284,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.578611971136141</v>
+        <v>1.591715760695869</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.790144049595654</v>
@@ -29421,7 +29373,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.61200993685399</v>
+        <v>1.623426817012665</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.606499247314533</v>
@@ -29510,7 +29462,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.622313346391448</v>
+        <v>1.636901986018336</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.491816454544651</v>
@@ -29599,7 +29551,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.634073456283026</v>
+        <v>1.647137864953623</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.598182967723658</v>
@@ -29688,7 +29640,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.644779634939134</v>
+        <v>1.65650440616531</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.518197232101066</v>
@@ -29777,7 +29729,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.643046323795446</v>
+        <v>1.657857814032338</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.482229464779944</v>
@@ -29866,7 +29818,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.662770117123438</v>
+        <v>1.672871395292053</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.68967576079903</v>
@@ -29955,7 +29907,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.661103022208676</v>
+        <v>1.674513098394207</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.570628608499075</v>
@@ -30044,7 +29996,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.676070312704932</v>
+        <v>1.689470711624247</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.585365578300855</v>
@@ -30133,7 +30085,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.672857441446067</v>
+        <v>1.684858226365596</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.491484117787519</v>
@@ -30222,7 +30174,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.676539152834001</v>
+        <v>1.688478176028683</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.454452028308866</v>
@@ -30311,7 +30263,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.672615699973321</v>
+        <v>1.68585058687421</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.612801971397635</v>
@@ -30400,7 +30352,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.66841223058066</v>
+        <v>1.680372923907547</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.466527449512838</v>
@@ -30489,7 +30441,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.684764239678344</v>
+        <v>1.702357116074928</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.533236723526219</v>
@@ -30578,7 +30530,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.681978905263507</v>
+        <v>1.700746431784566</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.59175267968644</v>
@@ -30667,7 +30619,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.680120909047346</v>
+        <v>1.698327628940662</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.518766648584279</v>
@@ -30756,7 +30708,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.735260138448653</v>
+        <v>1.739555659430584</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.464999026259316</v>
@@ -30845,7 +30797,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.726875256378556</v>
+        <v>1.72929940218821</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.585723278369794</v>
@@ -30934,7 +30886,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.719289650579642</v>
+        <v>1.723850840977143</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.587364591137696</v>
@@ -31023,7 +30975,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.729003768261147</v>
+        <v>1.730543650701932</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.685903448953821</v>
@@ -31112,7 +31064,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.734468713603233</v>
+        <v>1.736946489292388</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.596210597891963</v>
@@ -31201,7 +31153,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.725219195834372</v>
+        <v>1.731631675751405</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.903187865085064</v>
@@ -31290,7 +31242,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.729686801714444</v>
+        <v>1.735403530405084</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.054930731222826</v>
@@ -31379,7 +31331,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.706085091808915</v>
+        <v>1.717432258913036</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.855589360607199</v>
@@ -31468,7 +31420,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.716042981555424</v>
+        <v>1.729455621778916</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.874661184307679</v>
@@ -31557,7 +31509,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.713554639275354</v>
+        <v>1.722362016263152</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.124640182192135</v>
@@ -31646,7 +31598,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.734316337812977</v>
+        <v>1.741047310515562</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.714616898971431</v>
@@ -31735,7 +31687,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.730974537731584</v>
+        <v>1.736569147150489</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.866808966139968</v>
@@ -31824,7 +31776,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.734916196937651</v>
+        <v>1.738541737406473</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.87649413434408</v>
@@ -31913,7 +31865,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.74056562796067</v>
+        <v>1.742529389102412</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.8883577279872</v>
@@ -32002,7 +31954,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.746613318646909</v>
+        <v>1.751450380362709</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.919412915805481</v>
@@ -32091,7 +32043,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.744010193115025</v>
+        <v>1.752078822847399</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.990870283017577</v>
@@ -32180,7 +32132,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.744590578880182</v>
+        <v>1.753864565029841</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.854302357184316</v>
@@ -32269,7 +32221,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.750504984706985</v>
+        <v>1.760483114069112</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.866521844354838</v>
@@ -32358,7 +32310,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.748456182080689</v>
+        <v>1.75743620489139</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.840521179378444</v>
@@ -32447,7 +32399,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.760573147771365</v>
+        <v>1.764867220715817</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.75452170125506</v>
@@ -32536,7 +32488,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.786187251489137</v>
+        <v>1.790625208394764</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.993359923729014</v>
@@ -32625,7 +32577,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.762421720141421</v>
+        <v>1.770513522037572</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.889023844098954</v>
@@ -32714,7 +32666,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.790941446381229</v>
+        <v>1.791123920499687</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.018417360345554</v>
@@ -32803,7 +32755,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.788783778866726</v>
+        <v>1.787253391900847</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.010531995387775</v>
@@ -32892,7 +32844,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.788343328482725</v>
+        <v>1.793630453264052</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.860532281986146</v>
@@ -32981,7 +32933,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.790277099077986</v>
+        <v>1.792014048048172</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.661434653063603</v>
@@ -33070,7 +33022,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.787595296262602</v>
+        <v>1.791646101673948</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.135596956881217</v>
@@ -33159,7 +33111,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.780170489622829</v>
+        <v>1.784225800982673</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.781311949104198</v>
@@ -33248,7 +33200,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.783687005788919</v>
+        <v>1.78912926731522</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.840011382452567</v>
@@ -33337,7 +33289,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.779464626891374</v>
+        <v>1.782933879729321</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.856194251071555</v>
@@ -33426,7 +33378,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.786491925819004</v>
+        <v>1.789982024735703</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.751684004799137</v>
